--- a/Outputs/1. Budget/Output Files/420000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Output Files/420000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2217881.727467373</v>
+        <v>2253200.482793142</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914465</v>
+        <v>426806.9758914462</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478711</v>
+        <v>8362709.488478707</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -709,7 +709,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>48.83589518354175</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>98.78988171146807</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>236.634544917884</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>71.01467844038824</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>20.02544070929549</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1025,10 +1025,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>28.41964442677785</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.74855378848305</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1189,10 +1189,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.13484214871499</v>
+        <v>30.22545560005763</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1220,7 +1220,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1232,7 +1232,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>256.290790704606</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>32.07470356299387</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>123.3277290573763</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.262864575842432</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405352</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>73.91737409206878</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.50241671344909</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
@@ -1627,7 +1627,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>102.3571981878788</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>329.097886272821</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>38.78966489179808</v>
+        <v>41.16551806305293</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.64958867533</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>214.7695295647443</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>116.9780166550361</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>102.7113352232391</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>131.609105468444</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1940,7 +1940,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>38.97663790996523</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>185.5776815679168</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.0529342638476</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>123.4415842871428</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>136.2042081693065</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>107.0189038070306</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,10 +2168,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>38.78966489179808</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.64958867533</v>
@@ -2180,7 +2180,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2216,7 +2216,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8957288909827</v>
+        <v>84.54929467357414</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>54.64771050305907</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>108.0529342638476</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>95.43361657021704</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.87008630339913</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
-        <v>127.6697129884935</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2456,7 +2456,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>215.0193244057282</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.66757925108459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>369.6499779642728</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>332.0570353178481</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>3.722778175975093</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.64958867533</v>
@@ -2654,7 +2654,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>17.44731957864619</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.96458348310392</v>
+        <v>74.15307578127786</v>
       </c>
       <c r="T28" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>29.99456932581892</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59.25731814671208</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>17.44731957864619</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>158.8087079051065</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>16.23671366806694</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>187.3286270063156</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>107.9955212864813</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>10.30198440173697</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>28.58965000103594</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3125,10 +3125,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>52.18293713757069</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>13.08993799274015</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>73.903280940294</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.005789270132</v>
@@ -3286,7 +3286,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.4184586216305</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>186.8077736620127</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>234.2481154223481</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>31.51871451439819</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>17.44731957864619</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>54.48531857689832</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.3056640636606</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>51.48431888729557</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.3102587348938528</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S39" t="n">
-        <v>158.7937537960548</v>
+        <v>61.40230948893565</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
         <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
-        <v>166.2436691137413</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>161.6577616909981</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>141.605924235581</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>148.0373405871055</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>200.2969228521909</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3830,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4431349879765</v>
       </c>
       <c r="G42" t="n">
         <v>136.64958867533</v>
@@ -3839,7 +3839,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V42" t="n">
-        <v>184.743109972547</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>211.5751045694634</v>
       </c>
       <c r="U43" t="n">
-        <v>215.0193244057284</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>305.8212640141704</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>168.2147795546228</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>39.25814436821068</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -4109,7 +4109,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T45" t="n">
-        <v>175.6262265852954</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
         <v>225.8957288909827</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>146.5623749521075</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>74.15307578127808</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.8046290289238</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>509.8046290289238</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>509.8046290289238</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
         <v>266.3558523848238</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>509.8046290289238</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W2" t="n">
-        <v>509.8046290289238</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X2" t="n">
-        <v>509.8046290289238</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>763.0998667590087</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>763.0998667590087</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>763.0998667590087</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>763.0998667590087</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>555.2483665534759</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>347.488067788522</v>
       </c>
     </row>
     <row r="4">
@@ -4518,7 +4518,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
         <v>243.9530410142718</v>
@@ -4600,7 +4600,7 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
         <v>559.1338160830064</v>
@@ -4609,10 +4609,10 @@
         <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284.787934186969</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4658,7 +4658,7 @@
         <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>660.7635699719909</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>660.7635699719909</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>660.7635699719909</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>660.7635699719909</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>660.7635699719909</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>453.003271207037</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
         <v>41.77557929797318</v>
@@ -4758,19 +4758,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4837,19 +4837,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>901.2946886937524</v>
+        <v>832.3568628311405</v>
       </c>
       <c r="C9" t="n">
-        <v>726.8416594126254</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D9" t="n">
-        <v>577.9072497513741</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>418.6697947459187</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4956,13 +4956,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1495.138608428657</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.138608428657</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.872909821906</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="E11" t="n">
-        <v>877.9933232515971</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="F11" t="n">
-        <v>467.0074184619895</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G11" t="n">
-        <v>48.81975253256328</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
         <v>795.0052981540045</v>
@@ -5059,34 +5059,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2221.373021959851</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2221.373021959851</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V11" t="n">
-        <v>2221.373021959851</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W11" t="n">
-        <v>1868.604366689736</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="X11" t="n">
-        <v>1495.138608428657</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="Y11" t="n">
-        <v>1495.138608428657</v>
+        <v>990.9896677746653</v>
       </c>
     </row>
     <row r="12">
@@ -5096,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>929.9448703088874</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>755.4918410277604</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>606.5574313665091</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>447.3199763610536</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>300.7854183879386</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G12" t="n">
-        <v>162.7555308371003</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H12" t="n">
-        <v>56.15597937684856</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505445</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404816</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658749</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561438</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.159342346857</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
         <v>2222.939999577549</v>
@@ -5153,10 +5153,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W12" t="n">
         <v>1306.011707534488</v>
@@ -5165,7 +5165,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>1098.160207328955</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123.4837667669762</v>
+        <v>101.57561144789</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371205</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.6740222801512</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>412.9009368039368</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U13" t="n">
-        <v>412.9009368039368</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V13" t="n">
-        <v>412.9009368039368</v>
+        <v>329.5651623459073</v>
       </c>
       <c r="W13" t="n">
-        <v>123.4837667669762</v>
+        <v>329.5651623459073</v>
       </c>
       <c r="X13" t="n">
-        <v>123.4837667669762</v>
+        <v>101.57561144789</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.4837667669762</v>
+        <v>101.57561144789</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1727.842580703353</v>
+        <v>1523.722937950192</v>
       </c>
       <c r="C14" t="n">
-        <v>1727.842580703353</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="D14" t="n">
-        <v>1369.576882096602</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="E14" t="n">
-        <v>1369.576882096602</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F14" t="n">
-        <v>958.5909773069948</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5284,7 +5284,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5308,22 +5308,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U14" t="n">
-        <v>2221.37302195985</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V14" t="n">
-        <v>2221.37302195985</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W14" t="n">
-        <v>2117.981912679164</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X14" t="n">
-        <v>2117.981912679164</v>
+        <v>1523.722937950192</v>
       </c>
       <c r="Y14" t="n">
-        <v>1727.842580703353</v>
+        <v>1523.722937950192</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>398.7971326015548</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="E15" t="n">
-        <v>359.6156529128699</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F15" t="n">
         <v>359.6156529128699</v>
@@ -5360,13 +5360,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225003</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478935</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N15" t="n">
         <v>1557.865593173221</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.7097000304736</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="C16" t="n">
-        <v>195.7097000304736</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="D16" t="n">
-        <v>195.7097000304736</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E16" t="n">
-        <v>195.7097000304736</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I16" t="n">
         <v>48.81975253256327</v>
@@ -5460,28 +5460,28 @@
         <v>640.638169680758</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="S16" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="T16" t="n">
-        <v>423.699250928491</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="U16" t="n">
-        <v>423.699250928491</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="V16" t="n">
-        <v>423.699250928491</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="W16" t="n">
-        <v>423.699250928491</v>
+        <v>369.8168786136443</v>
       </c>
       <c r="X16" t="n">
-        <v>195.7097000304736</v>
+        <v>369.8168786136443</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.7097000304736</v>
+        <v>369.8168786136443</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1290.78269632715</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="C17" t="n">
-        <v>921.8201793867386</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D17" t="n">
-        <v>563.5544807799881</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E17" t="n">
-        <v>563.5544807799881</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F17" t="n">
-        <v>152.5685759903806</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G17" t="n">
         <v>48.81975253256327</v>
@@ -5521,7 +5521,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2238.958537522688</v>
       </c>
       <c r="T17" t="n">
-        <v>2440.987626628164</v>
+        <v>2019.343932854375</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.987626628164</v>
+        <v>2019.343932854375</v>
       </c>
       <c r="V17" t="n">
-        <v>2440.987626628164</v>
+        <v>2019.343932854375</v>
       </c>
       <c r="W17" t="n">
-        <v>2440.987626628164</v>
+        <v>2019.343932854375</v>
       </c>
       <c r="X17" t="n">
-        <v>2067.521868367084</v>
+        <v>2019.343932854375</v>
       </c>
       <c r="Y17" t="n">
-        <v>1677.382536391272</v>
+        <v>2019.343932854375</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.7751048338188</v>
+        <v>921.5458946967642</v>
       </c>
       <c r="C18" t="n">
-        <v>814.3220755526918</v>
+        <v>747.0928654156372</v>
       </c>
       <c r="D18" t="n">
-        <v>665.3876658914405</v>
+        <v>598.158455754386</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>438.9210007489305</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>292.3864427758155</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>154.3565552249771</v>
       </c>
       <c r="H18" t="n">
         <v>114.9862139017798</v>
@@ -5597,13 +5597,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>161.1406371339194</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2677802593126</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
         <v>1557.865593173221</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2081.228572368206</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="U18" t="n">
-        <v>1893.77636876425</v>
+        <v>1994.762495647263</v>
       </c>
       <c r="V18" t="n">
-        <v>1658.624260532507</v>
+        <v>1759.610387415521</v>
       </c>
       <c r="W18" t="n">
-        <v>1404.386903804306</v>
+        <v>1505.373030687319</v>
       </c>
       <c r="X18" t="n">
-        <v>1196.535403598773</v>
+        <v>1297.521530481786</v>
       </c>
       <c r="Y18" t="n">
-        <v>988.7751048338188</v>
+        <v>1089.761231716832</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>515.949700703846</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>515.949700703846</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G19" t="n">
         <v>48.81975253256327</v>
@@ -5709,16 +5709,16 @@
         <v>640.638169680758</v>
       </c>
       <c r="V19" t="n">
-        <v>385.9536814748711</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W19" t="n">
-        <v>385.9536814748711</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X19" t="n">
-        <v>157.9641305768538</v>
+        <v>515.949700703846</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.9641305768538</v>
+        <v>515.949700703846</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1324.613881121158</v>
+        <v>1572.822125467577</v>
       </c>
       <c r="C20" t="n">
-        <v>955.651364180746</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D20" t="n">
-        <v>597.3856655739955</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E20" t="n">
-        <v>597.3856655739955</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F20" t="n">
-        <v>186.399760784388</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G20" t="n">
         <v>48.81975253256327</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5788,16 +5788,16 @@
         <v>2440.987626628164</v>
       </c>
       <c r="V20" t="n">
-        <v>2440.987626628164</v>
+        <v>2332.887723792779</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.218971358049</v>
+        <v>2332.887723792779</v>
       </c>
       <c r="X20" t="n">
-        <v>1714.753213096969</v>
+        <v>1959.421965531699</v>
       </c>
       <c r="Y20" t="n">
-        <v>1324.613881121158</v>
+        <v>1959.421965531699</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E21" t="n">
-        <v>359.6156529128699</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5837,46 +5837,46 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M21" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O21" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.6458829583805</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V22" t="n">
-        <v>640.6381696807582</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W22" t="n">
-        <v>585.4384621019107</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="X22" t="n">
-        <v>585.4384621019107</v>
+        <v>157.9641305768538</v>
       </c>
       <c r="Y22" t="n">
-        <v>364.6458829583805</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1593.268879790881</v>
+        <v>1701.619131293928</v>
       </c>
       <c r="C23" t="n">
-        <v>1593.268879790881</v>
+        <v>1332.656614353516</v>
       </c>
       <c r="D23" t="n">
-        <v>1593.268879790881</v>
+        <v>974.3909157467658</v>
       </c>
       <c r="E23" t="n">
-        <v>1207.480627192637</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2370.008051830815</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>2370.008051830815</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>2370.008051830815</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W23" t="n">
-        <v>2370.008051830815</v>
+        <v>2088.21897135805</v>
       </c>
       <c r="X23" t="n">
-        <v>2370.008051830815</v>
+        <v>2088.21897135805</v>
       </c>
       <c r="Y23" t="n">
-        <v>1979.868719855003</v>
+        <v>2088.21897135805</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
@@ -6095,25 +6095,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
-        <v>2254.378424635692</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T24" t="n">
-        <v>2055.017101482861</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1826.839597552575</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
         <v>48.81975253256327</v>
@@ -6177,22 +6177,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V25" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="W25" t="n">
-        <v>351.2209996437974</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="X25" t="n">
-        <v>123.23144874578</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1580.864443318165</v>
+        <v>1482.969806655666</v>
       </c>
       <c r="C26" t="n">
-        <v>1580.864443318165</v>
+        <v>1482.969806655666</v>
       </c>
       <c r="D26" t="n">
-        <v>1580.864443318165</v>
+        <v>1124.704108048916</v>
       </c>
       <c r="E26" t="n">
-        <v>1207.480627192637</v>
+        <v>1124.704108048916</v>
       </c>
       <c r="F26" t="n">
-        <v>796.4947224030295</v>
+        <v>713.7182032593084</v>
       </c>
       <c r="G26" t="n">
         <v>378.3070564736033</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U26" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V26" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W26" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="X26" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.864443318165</v>
+        <v>1869.569646719788</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>779.8344674874215</v>
+        <v>940.2321985945478</v>
       </c>
       <c r="C27" t="n">
-        <v>605.3814382062945</v>
+        <v>765.7791693134208</v>
       </c>
       <c r="D27" t="n">
-        <v>456.4470285450433</v>
+        <v>616.8447596521695</v>
       </c>
       <c r="E27" t="n">
-        <v>297.2095735395878</v>
+        <v>457.607304646714</v>
       </c>
       <c r="F27" t="n">
-        <v>293.4491915436533</v>
+        <v>311.072746673599</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>173.0428591227606</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>66.44330766250891</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
@@ -6332,25 +6332,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2280.589895521037</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T27" t="n">
-        <v>2081.228572368206</v>
+        <v>2241.626303475332</v>
       </c>
       <c r="U27" t="n">
-        <v>1853.051068437921</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V27" t="n">
-        <v>1617.898960206178</v>
+        <v>1778.296691313304</v>
       </c>
       <c r="W27" t="n">
-        <v>1363.661603477976</v>
+        <v>1524.059334585103</v>
       </c>
       <c r="X27" t="n">
-        <v>1155.810103272443</v>
+        <v>1316.20783437957</v>
       </c>
       <c r="Y27" t="n">
-        <v>948.0498045074896</v>
+        <v>1108.447535614616</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
         <v>48.81975253256327</v>
@@ -6411,25 +6411,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>582.0880853543904</v>
+        <v>565.7360729319925</v>
       </c>
       <c r="T28" t="n">
-        <v>354.3508524775689</v>
+        <v>337.9988400551709</v>
       </c>
       <c r="U28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1161.83622067797</v>
+        <v>1241.358914440539</v>
       </c>
       <c r="C29" t="n">
-        <v>792.873703737558</v>
+        <v>1241.358914440539</v>
       </c>
       <c r="D29" t="n">
-        <v>434.6080051308075</v>
+        <v>883.0932158337882</v>
       </c>
       <c r="E29" t="n">
-        <v>48.81975253256327</v>
+        <v>497.304963235544</v>
       </c>
       <c r="F29" t="n">
-        <v>48.81975253256327</v>
+        <v>497.304963235544</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>79.11729730611773</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>79.11729730611773</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2312.041150978983</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2312.041150978983</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U29" t="n">
-        <v>2312.041150978983</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V29" t="n">
-        <v>2312.041150978983</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W29" t="n">
-        <v>2312.041150978983</v>
+        <v>1614.824672701619</v>
       </c>
       <c r="X29" t="n">
-        <v>1938.575392717903</v>
+        <v>1241.358914440539</v>
       </c>
       <c r="Y29" t="n">
-        <v>1548.436060742092</v>
+        <v>1241.358914440539</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>816.0090920043505</v>
+        <v>940.2321985945478</v>
       </c>
       <c r="C30" t="n">
-        <v>641.5560627232235</v>
+        <v>765.7791693134208</v>
       </c>
       <c r="D30" t="n">
-        <v>492.6216530619722</v>
+        <v>616.8447596521695</v>
       </c>
       <c r="E30" t="n">
-        <v>333.3841980565167</v>
+        <v>457.607304646714</v>
       </c>
       <c r="F30" t="n">
-        <v>186.8496400834017</v>
+        <v>311.072746673599</v>
       </c>
       <c r="G30" t="n">
-        <v>48.81975253256327</v>
+        <v>173.0428591227606</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>66.44330766250891</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
@@ -6566,28 +6566,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2241.626303475332</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1778.296691313304</v>
       </c>
       <c r="W30" t="n">
-        <v>1399.836227994905</v>
+        <v>1524.059334585103</v>
       </c>
       <c r="X30" t="n">
-        <v>1191.984727789372</v>
+        <v>1316.20783437957</v>
       </c>
       <c r="Y30" t="n">
-        <v>984.2244290244184</v>
+        <v>1108.447535614616</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.4590821581503</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C31" t="n">
-        <v>335.058361281315</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D31" t="n">
-        <v>335.058361281315</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E31" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
         <v>48.81975253256327</v>
@@ -6654,19 +6654,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U31" t="n">
-        <v>351.4590821581503</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V31" t="n">
-        <v>351.4590821581503</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W31" t="n">
-        <v>351.4590821581503</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="X31" t="n">
-        <v>351.4590821581503</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="Y31" t="n">
-        <v>351.4590821581503</v>
+        <v>196.7328461149564</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1116.77654996224</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="C32" t="n">
-        <v>1116.77654996224</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D32" t="n">
-        <v>1007.69016482438</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E32" t="n">
-        <v>621.901912226136</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F32" t="n">
-        <v>210.9160074365284</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U32" t="n">
-        <v>2187.207932640047</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V32" t="n">
-        <v>1856.145045296476</v>
+        <v>1639.940887950407</v>
       </c>
       <c r="W32" t="n">
-        <v>1503.376390026362</v>
+        <v>1639.940887950407</v>
       </c>
       <c r="X32" t="n">
-        <v>1503.376390026362</v>
+        <v>1629.534843100167</v>
       </c>
       <c r="Y32" t="n">
-        <v>1503.376390026362</v>
+        <v>1239.395511124356</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>518.8531079183253</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F33" t="n">
-        <v>239.5596775960993</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G33" t="n">
-        <v>101.5297900452609</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1406371339194</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C34" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D34" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E34" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F34" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
         <v>48.81975253256327</v>
@@ -6888,22 +6888,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>640.638169680758</v>
+        <v>565.9883909531883</v>
       </c>
       <c r="U34" t="n">
-        <v>351.4590821581503</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="V34" t="n">
-        <v>351.4590821581503</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W34" t="n">
-        <v>62.04191212118968</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X34" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y34" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1207.480627192637</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="C35" t="n">
-        <v>1207.480627192637</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="D35" t="n">
-        <v>1207.480627192637</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="E35" t="n">
-        <v>1207.480627192637</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F35" t="n">
-        <v>796.4947224030295</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2040.094374027286</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U35" t="n">
-        <v>1786.314680039169</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V35" t="n">
-        <v>1786.314680039169</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W35" t="n">
-        <v>1786.314680039169</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X35" t="n">
-        <v>1597.619959168449</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="Y35" t="n">
-        <v>1207.480627192637</v>
+        <v>1730.979069969361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>882.5823026510593</v>
+        <v>940.2321985945478</v>
       </c>
       <c r="C36" t="n">
-        <v>708.1292733699323</v>
+        <v>765.7791693134208</v>
       </c>
       <c r="D36" t="n">
-        <v>559.1948637086811</v>
+        <v>616.8447596521695</v>
       </c>
       <c r="E36" t="n">
-        <v>399.9574087032256</v>
+        <v>457.607304646714</v>
       </c>
       <c r="F36" t="n">
-        <v>253.4228507301105</v>
+        <v>311.072746673599</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>173.0428591227606</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>66.44330766250891</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
@@ -7040,28 +7040,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T36" t="n">
-        <v>2183.976407531844</v>
+        <v>2241.626303475332</v>
       </c>
       <c r="U36" t="n">
-        <v>1955.798903601558</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V36" t="n">
-        <v>1720.646795369816</v>
+        <v>1778.296691313304</v>
       </c>
       <c r="W36" t="n">
-        <v>1466.409438641614</v>
+        <v>1524.059334585103</v>
       </c>
       <c r="X36" t="n">
-        <v>1258.557938436081</v>
+        <v>1316.20783437957</v>
       </c>
       <c r="Y36" t="n">
-        <v>1050.797639671127</v>
+        <v>1108.447535614616</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>346.8095662305</v>
+        <v>419.8455905372278</v>
       </c>
       <c r="C37" t="n">
-        <v>346.8095662305</v>
+        <v>419.8455905372278</v>
       </c>
       <c r="D37" t="n">
-        <v>346.8095662305</v>
+        <v>419.8455905372278</v>
       </c>
       <c r="E37" t="n">
-        <v>346.8095662305</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F37" t="n">
-        <v>346.8095662305</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G37" t="n">
-        <v>346.8095662305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
         <v>48.81975253256327</v>
@@ -7128,19 +7128,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U37" t="n">
-        <v>567.6021453740301</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V37" t="n">
-        <v>567.6021453740301</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W37" t="n">
-        <v>567.6021453740301</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X37" t="n">
-        <v>567.6021453740301</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y37" t="n">
-        <v>346.8095662305</v>
+        <v>419.8455905372278</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1263.781575849841</v>
+        <v>1266.560789373247</v>
       </c>
       <c r="C38" t="n">
-        <v>1263.781575849841</v>
+        <v>897.5982724328348</v>
       </c>
       <c r="D38" t="n">
-        <v>1263.781575849841</v>
+        <v>897.5982724328348</v>
       </c>
       <c r="E38" t="n">
-        <v>877.9933232515971</v>
+        <v>511.8100198345906</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0074184619895</v>
+        <v>100.824115044983</v>
       </c>
       <c r="G38" t="n">
         <v>48.81975253256327</v>
@@ -7177,10 +7177,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7192,34 +7192,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894855</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T38" t="n">
-        <v>2371.897027894855</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U38" t="n">
-        <v>2371.897027894855</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="V38" t="n">
-        <v>2040.834140551284</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="W38" t="n">
-        <v>2040.520747889775</v>
+        <v>1653.160629437368</v>
       </c>
       <c r="X38" t="n">
-        <v>2040.520747889775</v>
+        <v>1653.160629437368</v>
       </c>
       <c r="Y38" t="n">
-        <v>1650.381415913963</v>
+        <v>1653.160629437368</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K39" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M39" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N39" t="n">
         <v>1557.865593173221</v>
@@ -7280,25 +7280,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577549</v>
+        <v>2321.315195847366</v>
       </c>
       <c r="T39" t="n">
-        <v>2222.939999577549</v>
+        <v>2121.953872694535</v>
       </c>
       <c r="U39" t="n">
-        <v>1994.762495647263</v>
+        <v>1893.77636876425</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.839597552575</v>
+        <v>1658.624260532507</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.602240824373</v>
+        <v>1404.386903804306</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.750740618841</v>
+        <v>1196.535403598773</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.990441853887</v>
+        <v>988.7751048338188</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I40" t="n">
         <v>48.81975253256327</v>
@@ -7341,43 +7341,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O40" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P40" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q40" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R40" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T40" t="n">
-        <v>640.6381696807582</v>
+        <v>477.3475013060124</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807582</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="V40" t="n">
-        <v>497.6018825741107</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="W40" t="n">
-        <v>497.6018825741107</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="X40" t="n">
-        <v>269.6123316760934</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1175.081213861455</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="C41" t="n">
-        <v>1175.081213861455</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="D41" t="n">
-        <v>1175.081213861455</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="E41" t="n">
-        <v>789.2929612632108</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F41" t="n">
-        <v>378.3070564736033</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G41" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T41" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U41" t="n">
-        <v>2291.454959368461</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="V41" t="n">
-        <v>2291.454959368461</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="W41" t="n">
-        <v>1938.686304098347</v>
+        <v>1734.518561881051</v>
       </c>
       <c r="X41" t="n">
-        <v>1565.220545837267</v>
+        <v>1734.518561881051</v>
       </c>
       <c r="Y41" t="n">
-        <v>1175.081213861455</v>
+        <v>1344.379229905239</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.7751048338188</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C42" t="n">
-        <v>814.3220755526918</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D42" t="n">
-        <v>665.3876658914405</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E42" t="n">
-        <v>506.150210885985</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T42" t="n">
-        <v>2241.626303475332</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.448799545047</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.839597552575</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.602240824373</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.750740618841</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.990441853887</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>195.7097000304736</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C43" t="n">
-        <v>195.7097000304736</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D43" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E43" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F43" t="n">
         <v>48.81975253256327</v>
@@ -7599,22 +7599,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>412.9009368039367</v>
+        <v>426.9259428429164</v>
       </c>
       <c r="U43" t="n">
-        <v>195.7097000304736</v>
+        <v>426.9259428429164</v>
       </c>
       <c r="V43" t="n">
-        <v>195.7097000304736</v>
+        <v>426.9259428429164</v>
       </c>
       <c r="W43" t="n">
-        <v>195.7097000304736</v>
+        <v>426.9259428429164</v>
       </c>
       <c r="X43" t="n">
-        <v>195.7097000304736</v>
+        <v>198.936391944899</v>
       </c>
       <c r="Y43" t="n">
-        <v>195.7097000304736</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>938.0140410570359</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="C44" t="n">
-        <v>938.0140410570359</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D44" t="n">
-        <v>938.0140410570359</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E44" t="n">
-        <v>938.0140410570359</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F44" t="n">
-        <v>938.0140410570359</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
-        <v>519.8263751276097</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7675,25 +7675,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U44" t="n">
-        <v>2440.987626628164</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V44" t="n">
-        <v>2440.987626628164</v>
+        <v>1616.400761297125</v>
       </c>
       <c r="W44" t="n">
-        <v>2088.218971358049</v>
+        <v>1616.400761297125</v>
       </c>
       <c r="X44" t="n">
-        <v>1714.753213096969</v>
+        <v>1242.935003036046</v>
       </c>
       <c r="Y44" t="n">
-        <v>1324.613881121158</v>
+        <v>852.7956710602338</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>744.1456658227286</v>
+        <v>890.3999085640012</v>
       </c>
       <c r="C45" t="n">
-        <v>569.6926365416016</v>
+        <v>715.9468792828742</v>
       </c>
       <c r="D45" t="n">
-        <v>420.7582268803504</v>
+        <v>567.0124696216229</v>
       </c>
       <c r="E45" t="n">
-        <v>261.5207718748949</v>
+        <v>407.7750146161674</v>
       </c>
       <c r="F45" t="n">
-        <v>114.9862139017798</v>
+        <v>261.2404566430524</v>
       </c>
       <c r="G45" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H45" t="n">
         <v>114.9862139017798</v>
@@ -7727,25 +7727,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7757,22 +7757,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T45" t="n">
-        <v>2045.539770703513</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>1817.362266773227</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1582.210158541485</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1327.972801813283</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1120.12130160775</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>912.3610028427966</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7833,25 +7833,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T46" t="n">
-        <v>412.9009368039367</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U46" t="n">
-        <v>123.721849281329</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V46" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="W46" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="X46" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8306,10 +8306,10 @@
         <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>362.5001705371777</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40241131725692</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>61.27660229194304</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029008</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>74.42821185443506</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K33" t="n">
-        <v>74.42821185443506</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029008</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918563</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>125.6395793676558</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>374.8013421787176</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597627</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>13.32185961795371</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>58.24193217968198</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>93.32944700655905</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23439,7 +23439,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617341</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407323</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23475,13 +23475,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.6352266103789</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>246.8837705295342</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>40.63321440564806</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>118.8554155636029</v>
+        <v>116.479562392348</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
@@ -23673,7 +23673,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>52.22830032617343</v>
@@ -23700,13 +23700,13 @@
         <v>37.44704598407326</v>
       </c>
       <c r="R16" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>10.69033098330897</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>169.5449816815549</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>311.2944540468928</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>47.85675598479412</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>66.55691803568394</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
-        <v>40.31804732306585</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.77904591808969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23949,13 +23949,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>102.2680711018943</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>277.8015811008255</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
@@ -24028,16 +24028,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>220.7333546631043</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24056,10 +24056,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>118.8554155636029</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>141.3464342174085</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24186,16 +24186,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>231.8752878335319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>110.5317190882472</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>286.4967535020447</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>215.5483723182313</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
         <v>251.2418970482362</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>31.1240408075613</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24417,7 +24417,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>10.69033098330897</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.9170741010102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>12.28039210798903</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>81.94875395228388</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
         <v>251.2418970482362</v>
@@ -24533,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>48.05747717687822</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
         <v>137.955174638333</v>
@@ -24651,13 +24651,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>155.9134139934482</v>
+        <v>139.7249216952743</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>130.4807230291066</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>120.2085433065261</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>48.05747717687822</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>92.88627525581313</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>151.0101074305609</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.4092130247883</v>
@@ -24858,7 +24858,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
         <v>52.22830032617343</v>
@@ -24894,13 +24894,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>99.1943713302754</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>246.6875203342017</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>359.4291162767321</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>118.8554155636028</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>53.35061880807848</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>143.9648029298841</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25128,7 +25128,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>151.5565796077593</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>182.9233270164563</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>151.9898232337055</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>105.1308741609318</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.05747717687822</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>91.94864406967085</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25368,7 +25368,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>213.981632583721</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>362.5214703828364</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>348.9307099825191</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>97.39144430711912</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>66.55691803568396</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>52.22830032617343</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R40" t="n">
         <v>151.1350615014064</v>
@@ -25602,22 +25602,22 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>63.80209885705514</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>110.531719088247</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>103.2045564611307</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>148.9440458652221</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>39.6260774054074</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>48.05747717687825</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
@@ -25839,10 +25839,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>13.88475597858985</v>
       </c>
       <c r="U43" t="n">
-        <v>71.26797224165318</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>20.37116688745914</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>159.5374789155121</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>97.39144430711931</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>21.74148333600732</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>20.84683807268081</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26073,16 +26073,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>177.9845675425499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>564624.9788458066</v>
+        <v>564624.9788458064</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>564624.9788458064</v>
+        <v>564624.9788458062</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>564624.9788458063</v>
+        <v>564624.9788458066</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>564624.9788458063</v>
+        <v>564624.9788458066</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>564624.9788458066</v>
+        <v>564624.9788458064</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>564624.9788458064</v>
+        <v>564624.9788458063</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>564624.9788458063</v>
+        <v>564624.9788458064</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>564624.9788458066</v>
+        <v>564624.9788458064</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>564624.9788458063</v>
+        <v>564624.9788458066</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.47051337</v>
       </c>
       <c r="F2" t="n">
         <v>393156.4705133699</v>
       </c>
       <c r="G2" t="n">
+        <v>393156.47051337</v>
+      </c>
+      <c r="H2" t="n">
         <v>393156.4705133698</v>
       </c>
-      <c r="H2" t="n">
-        <v>393156.4705133699</v>
-      </c>
       <c r="I2" t="n">
+        <v>393156.47051337</v>
+      </c>
+      <c r="J2" t="n">
         <v>393156.4705133698</v>
       </c>
-      <c r="J2" t="n">
-        <v>393156.4705133699</v>
-      </c>
       <c r="K2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.47051337</v>
       </c>
       <c r="L2" t="n">
         <v>393156.4705133699</v>
@@ -26349,13 +26349,13 @@
         <v>393156.4705133699</v>
       </c>
       <c r="N2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.4705133698</v>
       </c>
       <c r="O2" t="n">
         <v>393156.4705133699</v>
       </c>
       <c r="P2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.4705133699</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327803</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109311</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>7325.48447825867</v>
       </c>
       <c r="H4" t="n">
-        <v>7325.484478258669</v>
+        <v>7325.48447825867</v>
       </c>
       <c r="I4" t="n">
         <v>7325.48447825867</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
         <v>44136.03802033842</v>
@@ -26524,46 +26524,46 @@
         <v>180542.3519650399</v>
       </c>
       <c r="C6" t="n">
-        <v>261311.7834965875</v>
+        <v>261311.7834965877</v>
       </c>
       <c r="D6" t="n">
-        <v>261311.7834965876</v>
+        <v>261311.7834965877</v>
       </c>
       <c r="E6" t="n">
-        <v>-34709.27569173958</v>
+        <v>-28437.24357538042</v>
       </c>
       <c r="F6" t="n">
-        <v>334726.0234410408</v>
+        <v>340998.0555573996</v>
       </c>
       <c r="G6" t="n">
-        <v>334726.0234410405</v>
+        <v>340998.0555573998</v>
       </c>
       <c r="H6" t="n">
-        <v>334726.0234410407</v>
+        <v>340998.0555573996</v>
       </c>
       <c r="I6" t="n">
-        <v>334726.0234410405</v>
+        <v>340998.0555573998</v>
       </c>
       <c r="J6" t="n">
-        <v>271666.0808419344</v>
+        <v>277938.1129582933</v>
       </c>
       <c r="K6" t="n">
-        <v>334726.0234410406</v>
+        <v>340998.0555573998</v>
       </c>
       <c r="L6" t="n">
-        <v>334726.0234410407</v>
+        <v>340998.0555573996</v>
       </c>
       <c r="M6" t="n">
-        <v>242711.7781599475</v>
+        <v>248983.8102763066</v>
       </c>
       <c r="N6" t="n">
-        <v>334726.0234410406</v>
+        <v>340998.0555573996</v>
       </c>
       <c r="O6" t="n">
-        <v>334726.0234410406</v>
+        <v>340998.0555573996</v>
       </c>
       <c r="P6" t="n">
-        <v>334726.0234410408</v>
+        <v>340998.0555573996</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>322.6158759445108</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
         <v>610.2469066570409</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.232617779382</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.232617779382</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.232617779382</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,7 +27438,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>278.9163632865931</v>
+        <v>246.9221439951795</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>101.3748469833535</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>15.06043824303563</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27590,10 +27590,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>335.8613673013232</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27672,16 +27672,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>320.8952054949273</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>146.5077429405719</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,16 +27703,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>171.7450842680437</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>283.9852878749975</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.3983415011523</v>
+        <v>136.3077280498097</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -28028,16 +28028,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31758,40 +31758,40 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L11" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P11" t="n">
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517341</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
-        <v>29.55420813300722</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858961</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T12" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223824</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501265</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
         <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K21" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R21" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L22" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H38" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
@@ -33906,7 +33906,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O38" t="n">
         <v>218.5211886152591</v>
@@ -33918,13 +33918,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S38" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K39" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,10 +33994,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R39" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
@@ -34006,7 +34006,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,40 +34043,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L40" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P40" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
@@ -34085,7 +34085,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35026,10 +35026,10 @@
         <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L11" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846584</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35500,16 +35500,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831783</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
-        <v>385.0071659263359</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691794</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
         <v>130.7783941571062</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912688</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
@@ -35737,7 +35737,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N15" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
@@ -35965,7 +35965,7 @@
         <v>64.8144330484658</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64100594280298</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
@@ -35974,7 +35974,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>48.64100594280298</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
@@ -37551,7 +37551,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N38" t="n">
         <v>439.3515785419015</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912688</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N39" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N40" t="n">
         <v>133.158287785359</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009466</v>
@@ -37867,7 +37867,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>309.3596570595963</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
